--- a/portfolio/TableauDeSynthèse.xlsx
+++ b/portfolio/TableauDeSynthèse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxime.dervaux\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Creation d'un portail d'outils d'administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refonte graphique d'un portail utilisateur </t>
+  </si>
+  <si>
+    <t>Realisation d'une campagne de sensibilisation au phishing</t>
   </si>
 </sst>
 </file>
@@ -593,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -658,6 +667,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,44 +733,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:AQ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,56 +1063,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1112,22 +1124,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1150,8 +1162,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="295.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1207,16 +1219,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1444,16 +1456,16 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1632,16 +1644,16 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1679,14 +1691,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1724,13 +1738,15 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="14"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1769,7 +1785,9 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1906,18 +1924,18 @@
     <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
